--- a/Чертежи и спеки шкафов/Чертежи/Актуальные/3.Сервер/Спецификация Серверный шкаф.xlsx
+++ b/Чертежи и спеки шкафов/Чертежи/Актуальные/3.Сервер/Спецификация Серверный шкаф.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF190F4A-E877-4A1E-AA30-DFE575E53891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,6 +22,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -258,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,15 +372,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,26 +402,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,10 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,16 +433,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 2" xfId="2"/>
-    <cellStyle name="Обычный 2 2 2" xfId="9"/>
-    <cellStyle name="Обычный 2 2 3" xfId="6"/>
-    <cellStyle name="Обычный 2_Магадель" xfId="4"/>
-    <cellStyle name="Обычный 3 2 3" xfId="1"/>
-    <cellStyle name="Обычный 3 2 3 2" xfId="8"/>
-    <cellStyle name="Обычный 3 2 3 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3 2 3 2 2 2" xfId="10"/>
-    <cellStyle name="Обычный 3 2 3 2 2 3" xfId="7"/>
-    <cellStyle name="Обычный 3 2 3 3" xfId="5"/>
+    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2_Магадель" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 3 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 3 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 3 2 3 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Обычный 3 2 3 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Обычный 3 2 3 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный 3 2 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,28 +725,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -788,10 +769,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -814,10 +795,10 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="13">
         <v>7</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="13">
         <v>8</v>
       </c>
     </row>
@@ -825,21 +806,21 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -854,192 +835,192 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="16">
         <v>240818.32</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="13">
         <f>G4*F4</f>
         <v>240818.32</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="13">
         <v>21006.79</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="13">
         <f t="shared" ref="H5:H16" si="0">G5*F5</f>
         <v>21006.79</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="13">
         <v>573.23</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>4585.84</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="13">
         <v>736.3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>736.3</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="13">
         <v>15933.33</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>31866.66</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="13">
         <v>5258.86</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>5258.86</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="13">
         <v>3052.71</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>3052.71</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="13">
         <v>28000.83</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>28000.83</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1048,71 +1029,71 @@
       <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="20">
+      <c r="G12" s="20"/>
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="19">
         <v>106619.48</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>106619.48</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="19">
         <v>5076.8999999999996</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>20307.599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1121,21 +1102,21 @@
       <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="20">
+      <c r="G15" s="20"/>
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1144,123 +1125,123 @@
       <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="13">
         <v>115314.17</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>115314.17</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="19">
         <v>1176.69</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="13">
         <f t="shared" ref="H17" si="1">G17*F17</f>
         <v>7060.14</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="17">
         <v>1</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="19">
         <v>458.33</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="13">
         <f t="shared" ref="H18:H31" si="2">G18*F18</f>
         <v>458.33</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="19">
         <v>213.21</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="13">
         <f t="shared" si="2"/>
         <v>852.84</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="19">
         <v>1091.67</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="13">
         <f t="shared" si="2"/>
         <v>1091.67</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1269,73 +1250,73 @@
       <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="19">
         <v>56066.67</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="13">
         <f t="shared" si="2"/>
         <v>112133.34</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="19">
         <v>34533.33</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="13">
         <f t="shared" si="2"/>
         <v>138133.32</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="19">
         <v>430.07</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="13">
         <f t="shared" si="2"/>
         <v>860.14</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1344,197 +1325,197 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="19">
         <v>37.53</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="13">
         <f t="shared" si="2"/>
         <v>262.71000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="2">
         <v>10</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="19">
         <v>33.33</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="13">
         <f t="shared" si="2"/>
         <v>333.29999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="19">
         <v>909.33</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="13">
         <f t="shared" si="2"/>
         <v>1818.66</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="19">
         <v>228</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="13">
         <f t="shared" si="2"/>
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="19">
         <v>296.88</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="13">
         <f t="shared" si="2"/>
         <v>296.88</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="13">
         <v>114.17</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="13">
         <f t="shared" si="2"/>
         <v>228.34</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="19">
         <v>5517.97</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="13">
         <f t="shared" si="2"/>
         <v>33107.82</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="19">
         <v>7555.21</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="13">
         <f t="shared" si="2"/>
         <v>15110.42</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="33" spans="7:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="18">
         <f>SUM(H4:H31)</f>
         <v>889771.47</v>
       </c>
